--- a/data/整体.xlsx
+++ b/data/整体.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Desktop\wealth-hunter\asset_mgnt_report\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\wealth-hunter\asset_mgnt_report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB5905-7512-40CC-A824-12EF5CC8AF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD44DE0-DA5B-4BCF-BCCC-A0E69F9F3AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>区域</t>
   </si>
@@ -52,13 +52,7 @@
     <t>债券固收</t>
   </si>
   <si>
-    <t>36,219 B USD</t>
-  </si>
-  <si>
     <t>中国</t>
-  </si>
-  <si>
-    <t>1098 B CNY</t>
   </si>
   <si>
     <t>香港</t>
@@ -94,12 +88,6 @@
     <t>MoM(%)</t>
   </si>
   <si>
-    <t>MoM参考日期</t>
-  </si>
-  <si>
-    <t>YoY参考日期</t>
-  </si>
-  <si>
     <t>5年均值</t>
   </si>
   <si>
@@ -123,42 +111,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30,879 B HKD</t>
-  </si>
-  <si>
-    <t>64,334 B CNY</t>
-  </si>
-  <si>
-    <t>60,521 B USD</t>
-  </si>
-  <si>
-    <t>23,786 B USD</t>
-  </si>
-  <si>
-    <t>2,140 B USD</t>
+    <t>YoY(%)</t>
+  </si>
+  <si>
+    <t>61,798 B USD</t>
+  </si>
+  <si>
+    <t>65,583 B CNY</t>
+  </si>
+  <si>
+    <t>32,554 B HKD</t>
+  </si>
+  <si>
+    <t>1,287 B CNY</t>
+  </si>
+  <si>
+    <t>29,715 B USD</t>
+  </si>
+  <si>
+    <t>27,799 B USD</t>
+  </si>
+  <si>
+    <t>2,241 B USD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YoY(%)</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>2020-09 to 2025-09</t>
+    <t>2020-10 to 2025-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,14 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -207,11 +184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -229,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -292,21 +269,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFDEE0E3"/>
       </left>
@@ -321,65 +283,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,11 +618,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
   </cols>
@@ -681,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -693,187 +648,187 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17">
-        <v>0.159</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0.15540000000000001</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.19009999999999999</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>32</v>
+      <c r="C2" s="10">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="9">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-0.81</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-0.64</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-0.81</v>
-      </c>
-      <c r="D4" s="10">
-        <v>-0.64</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.88660000000000005</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.37219999999999998</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>31</v>
+      <c r="C5" s="6">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D6" s="9">
         <v>1.38E-2</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
+      <c r="E6" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
         <v>-0.5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>-2.8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
+      <c r="A8" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
-        <v>-0.18010000000000001</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.4103</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.28270000000000001</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>30</v>
+      <c r="C8" s="10">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.03</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>-5.2</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.37980000000000003</v>
-      </c>
-      <c r="E10" s="8">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10">
+        <v>3.2709000000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12">
+        <v>-25.61</v>
+      </c>
+      <c r="D11" s="12">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="E11" s="12">
+        <v>38.46</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11">
-        <v>-56.42</v>
-      </c>
-      <c r="D11">
-        <v>82.51</v>
-      </c>
-      <c r="E11" s="18">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFDB73F-6985-42C7-8593-84D3E40DF9B2}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -907,124 +862,98 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="B2" s="7">
+        <v>7.1475999999999997</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45940</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.38623099999999999</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.91204300000000005</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6.9140800000000002</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="B3" s="7">
+        <v>7.7824</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45940</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-9.1149999999999995E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.162166</v>
+      </c>
+      <c r="F3" s="7">
+        <v>7.8050829999999998</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>7.1287000000000003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>-0.88703510601320312</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>0.1714325862432374</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>6.9066167306216419</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>7.7946999999999997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>-0.69939869547492806</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>-2.0522555571230248E-2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>7.804322375478927</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>1.0934251686843319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>0.18931570732343311</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>-0.19162663132445251</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4">
-        <v>1.1327750839154891</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
+      <c r="B4" s="7">
+        <v>1.088813</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45940</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-0.47554000000000002</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-0.74309999999999998</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.1316870000000001</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/整体.xlsx
+++ b/data/整体.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Documents\GitHub\wealth-hunter\asset_mgnt_report\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucius\Desktop\asset_mgnt_report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD44DE0-DA5B-4BCF-BCCC-A0E69F9F3AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47368719-C1DE-4711-96D7-896F57DF62AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>区域</t>
   </si>
@@ -65,15 +65,15 @@
   </si>
   <si>
     <t>Adjusted Sharpe Ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月收益率年化 (%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sharpe Ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货币汇率</t>
@@ -104,60 +104,55 @@
   </si>
   <si>
     <t>房地产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gainer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YoY(%)</t>
   </si>
   <si>
-    <t>61,798 B USD</t>
-  </si>
-  <si>
-    <t>65,583 B CNY</t>
-  </si>
-  <si>
-    <t>32,554 B HKD</t>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2020-11 to 2025-11</t>
+  </si>
+  <si>
+    <t>2,031 B USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,857 B USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,783 B USD</t>
+  </si>
+  <si>
+    <t>64,520 B CNY</t>
+  </si>
+  <si>
+    <t>45,950 B HKD</t>
   </si>
   <si>
     <t>1,287 B CNY</t>
   </si>
   <si>
-    <t>29,715 B USD</t>
-  </si>
-  <si>
-    <t>27,799 B USD</t>
-  </si>
-  <si>
-    <t>2,241 B USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-10 to 2025-10</t>
+    <t>29,999 B USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +164,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -177,14 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -206,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -279,60 +274,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,87 +628,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.13370000000000001</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.11269999999999999</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="18">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3.9300000000000002E-2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="19">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="7">
@@ -708,48 +731,57 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.155</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="18">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.1832</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="19">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D6" s="19">
         <v>1.38E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7">
@@ -760,30 +792,36 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.29659999999999997</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.16209999999999999</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="18">
+        <v>-0.2873</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.2089</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="7">
@@ -794,42 +832,51 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10">
-        <v>3.2709000000000001</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.57869999999999999</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="18">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12">
-        <v>-25.61</v>
-      </c>
-      <c r="D11" s="12">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="E11" s="12">
-        <v>38.46</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3">
+        <v>-1.2183999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.3866</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -839,7 +886,7 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -849,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFDB73F-6985-42C7-8593-84D3E40DF9B2}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -864,100 +911,100 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7">
-        <v>7.1475999999999997</v>
-      </c>
-      <c r="C2" s="8">
-        <v>45940</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.38623099999999999</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.91204300000000005</v>
-      </c>
-      <c r="F2" s="7">
-        <v>6.9140800000000002</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2">
+        <v>7.1252000000000004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>-0.28967659776934629</v>
+      </c>
+      <c r="E2">
+        <v>-0.33709593946260169</v>
+      </c>
+      <c r="F2">
+        <v>6.9208264006139686</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7">
-        <v>7.7824</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45940</v>
-      </c>
-      <c r="D3" s="7">
-        <v>-9.1149999999999995E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.162166</v>
-      </c>
-      <c r="F3" s="7">
-        <v>7.8050829999999998</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B3">
+        <v>7.7770999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>-7.7090105484963922E-2</v>
+      </c>
+      <c r="E3">
+        <v>8.3648624301855073E-2</v>
+      </c>
+      <c r="F3">
+        <v>7.8054091187739463</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7">
-        <v>1.088813</v>
-      </c>
-      <c r="C4" s="8">
-        <v>45940</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-0.47554000000000002</v>
-      </c>
-      <c r="E4" s="7">
-        <v>-0.74309999999999998</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.1316870000000001</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
+      <c r="B4">
+        <v>1.0914921686408801</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>0.21320409465209411</v>
+      </c>
+      <c r="E4">
+        <v>0.42216767385073373</v>
+      </c>
+      <c r="F4">
+        <v>1.130633479874587</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>